--- a/target/classes/menu.xlsx
+++ b/target/classes/menu.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ponce\Documents\Programacion\UTN\TECNICATURA EN PROGRAMACION\ECOMMERCE PIZZERIA LAVERA PIZZA\Backend\e-commerce\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTOS\java-spring\backen-ecomer\UTN-MMXXIII-PF-B\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69377C6A-6092-4542-9B91-8FB2D57E1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5883AC44-CE53-423D-8AAE-746867A7B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E9A1C6-F8C1-447B-B028-E4562A053A92}"/>
+    <workbookView xWindow="6240" yWindow="6240" windowWidth="23745" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>lomos</t>
   </si>
@@ -170,9 +159,6 @@
     <t>cuatro estaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">especial con anchoas </t>
-  </si>
-  <si>
     <t>anana</t>
   </si>
   <si>
@@ -194,9 +180,6 @@
     <t>2 porciones especial, 2 porciones jamon crudo y rucula, 2 porciones anana, 2 porciones cantimpalo</t>
   </si>
   <si>
-    <t>salsa, muzzarella, jamon, morron, anchoas, aceitunas</t>
-  </si>
-  <si>
     <t>salsa, muzzarella, anana, aceitunas</t>
   </si>
   <si>
@@ -239,9 +222,6 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>imagen</t>
-  </si>
-  <si>
     <t>salsa, lomo, muzzarella, jamon, lechuga, tomate, huevo, morron, aceitunas</t>
   </si>
   <si>
@@ -255,6 +235,72 @@
   </si>
   <si>
     <t>salsa, muzzarella, jamon crudo, aceitunas</t>
+  </si>
+  <si>
+    <t>especial</t>
+  </si>
+  <si>
+    <t>salsa, muzzarella, jamon, morron, aceitunas</t>
+  </si>
+  <si>
+    <t>muzzarella</t>
+  </si>
+  <si>
+    <t>salsa, muzzarella, aceitunas</t>
+  </si>
+  <si>
+    <t>cantimpalo</t>
+  </si>
+  <si>
+    <t>salsa, muzzarella, cantimpalo, aceitunas</t>
+  </si>
+  <si>
+    <t>/images/lomo-verapizza.jpg</t>
+  </si>
+  <si>
+    <t>/images/chorizo.jpg</t>
+  </si>
+  <si>
+    <t>/hamburguesa.png</t>
+  </si>
+  <si>
+    <t>/images/hamburguesa.png</t>
+  </si>
+  <si>
+    <t>/images/empanada-carne.jpg</t>
+  </si>
+  <si>
+    <t>/images/empanada-jq.png</t>
+  </si>
+  <si>
+    <t>/images/papas-fritas.png</t>
+  </si>
+  <si>
+    <t>/images/tostado.jpg</t>
+  </si>
+  <si>
+    <t>/images/pizza-fugazzeta-r.jpg</t>
+  </si>
+  <si>
+    <t>/images/pizzeria_67.jpg</t>
+  </si>
+  <si>
+    <t>/images/pizza-muzzarella.jpg</t>
+  </si>
+  <si>
+    <t>/images/pizza-especial.jpg</t>
+  </si>
+  <si>
+    <t>/images/pizza-champignon.jpg</t>
+  </si>
+  <si>
+    <t>/images/pizza-4quesos.png</t>
+  </si>
+  <si>
+    <t>/images/pizza-jcyrucula.jpg</t>
+  </si>
+  <si>
+    <t>/images/pizza-cantimpalo.jpg</t>
   </si>
 </sst>
 </file>
@@ -270,15 +316,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -286,15 +338,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,18 +393,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABA3F003-44D7-4D63-A5C0-ACC6EFF6A89B}" name="Tabla1" displayName="Tabla1" ref="A1:I43" totalsRowShown="0">
-  <autoFilter ref="A1:I43" xr:uid="{ABA3F003-44D7-4D63-A5C0-ACC6EFF6A89B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I45" totalsRowShown="0">
+  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2C0DF8A4-06AD-4768-B048-86E741A92931}" name="Category  Name"/>
-    <tableColumn id="2" xr3:uid="{3BD8E395-3B1F-4F6B-9CC2-0C6D1C63B590}" name="Product Name"/>
-    <tableColumn id="3" xr3:uid="{B894A726-B151-47B4-BC57-DC947B9113DB}" name="Product Price"/>
-    <tableColumn id="8" xr3:uid="{52C32147-C952-4745-905B-13CD7AA46CAA}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{58359572-4EB8-4EBB-BBFB-BEADFA01C3C5}" name="Ingredients"/>
-    <tableColumn id="6" xr3:uid="{BEB4A002-C98C-4C6E-ABA6-2E83F516A4F3}" name="Additives"/>
-    <tableColumn id="7" xr3:uid="{47DC1684-0136-4601-83D5-486574CD6D86}" name="Additives Price"/>
-    <tableColumn id="4" xr3:uid="{A0A0B6C1-8A9C-45BC-8C95-E3375DB8F2C1}" name="Size"/>
-    <tableColumn id="9" xr3:uid="{5FFE2432-04DB-4929-A655-08CC5A4E907C}" name="Image"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category  Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Product Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product Price"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ingredients"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Additives"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Additives Price"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Size"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -646,55 +726,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3C5377-E932-4452-8667-3A29B1590007}">
-  <dimension ref="A1:L43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="137.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -705,7 +785,7 @@
         <v>8500</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -714,10 +794,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -728,7 +808,7 @@
         <v>9500</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -737,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -751,7 +831,7 @@
         <v>10000</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -760,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -774,7 +854,7 @@
         <v>6500</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -783,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -797,7 +877,7 @@
         <v>7000</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -809,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -823,7 +903,7 @@
         <v>7500</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -835,11 +915,11 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -850,7 +930,7 @@
         <v>8000</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -862,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -876,16 +956,16 @@
         <v>8000</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -896,16 +976,16 @@
         <v>4000</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -916,16 +996,16 @@
         <v>800</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -936,16 +1016,16 @@
         <v>8000</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -956,16 +1036,16 @@
         <v>4000</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -976,16 +1056,16 @@
         <v>800</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1076,7 @@
         <v>3500</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1005,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1099,7 @@
         <v>5000</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -1028,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1042,7 +1122,7 @@
         <v>6000</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1051,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1065,7 +1145,7 @@
         <v>8000</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -1077,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1171,7 @@
         <v>6500</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -1103,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1197,7 @@
         <v>8000</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -1126,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1220,7 @@
         <v>4500</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -1155,10 +1235,10 @@
         <v>0.5</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1169,7 +1249,7 @@
         <v>8500</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1184,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1278,7 @@
         <v>6000</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -1213,10 +1293,10 @@
         <v>0.5</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1307,7 @@
         <v>11000</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -1242,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1256,7 +1336,7 @@
         <v>6000</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -1271,10 +1351,10 @@
         <v>0.5</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1365,7 @@
         <v>11000</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -1300,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1314,13 +1394,13 @@
         <v>11000</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <v>1000</v>
@@ -1329,27 +1409,27 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C28">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -1358,27 +1438,27 @@
         <v>0.5</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C29">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29">
         <v>1000</v>
@@ -1387,143 +1467,143 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>6500</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
         <v>54</v>
       </c>
       <c r="G30">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H30">
         <v>0.5</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
         <v>54</v>
       </c>
       <c r="G31">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G32">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H32">
         <v>0.5</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G33">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G34">
         <v>1000</v>
@@ -1532,27 +1612,27 @@
         <v>0.5</v>
       </c>
       <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G35">
         <v>1000</v>
@@ -1561,27 +1641,27 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>6500</v>
       </c>
       <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <v>1000</v>
@@ -1590,27 +1670,27 @@
         <v>0.5</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>12000</v>
       </c>
       <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
         <v>66</v>
       </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>1000</v>
@@ -1619,27 +1699,27 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G38">
         <v>1000</v>
@@ -1648,27 +1728,27 @@
         <v>0.5</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G39">
         <v>1000</v>
@@ -1677,27 +1757,27 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>6000</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G40">
         <v>1000</v>
@@ -1706,27 +1786,27 @@
         <v>0.5</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>11000</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G41">
         <v>1000</v>
@@ -1735,27 +1815,27 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>6000</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G42">
         <v>1000</v>
@@ -1764,27 +1844,27 @@
         <v>0.5</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>11000</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G43">
         <v>1000</v>
@@ -1793,13 +1873,130 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>6000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>11000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47">
+        <v>11000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>